--- a/Clientes buenos.xlsx
+++ b/Clientes buenos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="129">
   <si>
     <t>nombre</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>chito</t>
-  </si>
-  <si>
-    <t>Juana Garcia</t>
   </si>
   <si>
     <t>El palmar</t>
@@ -740,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,41 +794,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,55 +853,55 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,13 +909,13 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,13 +923,13 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,13 +937,13 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,13 +951,10 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,10 +962,13 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -976,13 +976,13 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,13 +990,13 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,27 +1004,27 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,13 +1032,13 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,13 +1046,13 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,13 +1060,13 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,13 +1074,13 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,13 +1088,13 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,13 +1102,13 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,55 +1116,55 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,13 +1172,13 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,13 +1186,13 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,13 +1200,13 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,13 +1214,13 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,13 +1228,13 @@
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,13 +1242,13 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,13 +1256,13 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,55 +1270,55 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
         <v>66</v>
       </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,27 +1326,27 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,69 +1354,69 @@
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
         <v>77</v>
       </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,41 +1424,41 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,13 +1466,13 @@
         <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,13 +1480,13 @@
         <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,41 +1494,41 @@
         <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
         <v>96</v>
       </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1536,13 @@
         <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,13 +1550,13 @@
         <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,27 +1564,27 @@
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,41 +1592,41 @@
         <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
         <v>104</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>105</v>
       </c>
-      <c r="C62" t="s">
-        <v>106</v>
-      </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
         <v>105</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>106</v>
-      </c>
-      <c r="D63" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,13 +1634,13 @@
         <v>110</v>
       </c>
       <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
         <v>105</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>106</v>
-      </c>
-      <c r="D64" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,27 +1648,27 @@
         <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
         <v>112</v>
       </c>
-      <c r="B66" t="s">
-        <v>113</v>
-      </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,13 +1676,13 @@
         <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,27 +1690,27 @@
         <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
         <v>117</v>
       </c>
-      <c r="B69" t="s">
-        <v>118</v>
-      </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,13 +1718,13 @@
         <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,13 +1732,13 @@
         <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,13 +1746,13 @@
         <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,13 +1760,13 @@
         <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,13 +1774,13 @@
         <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,55 +1788,41 @@
         <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" t="s">
         <v>127</v>
       </c>
-      <c r="B77" t="s">
-        <v>128</v>
-      </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Clientes buenos.xlsx
+++ b/Clientes buenos.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personales\utilitario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
   <si>
     <t>nombre</t>
   </si>
@@ -81,12 +76,6 @@
   </si>
   <si>
     <t>Empleados</t>
-  </si>
-  <si>
-    <t>Hortencia Joseline Roa Chalas</t>
-  </si>
-  <si>
-    <t>Eligio Jimenez Concepcion</t>
   </si>
   <si>
     <t>Merbin Feliz Guevara</t>
@@ -416,8 +405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -552,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -729,28 +718,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -778,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -792,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -806,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -820,7 +809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -834,9 +823,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -848,26 +837,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -876,26 +865,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -904,12 +893,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -918,12 +907,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -932,12 +921,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -946,23 +935,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -971,12 +960,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -985,12 +974,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -999,26 +988,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -1027,12 +1016,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -1041,12 +1030,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1055,12 +1044,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1069,12 +1058,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1083,12 +1072,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1097,12 +1086,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1111,54 +1100,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1167,12 +1156,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1181,12 +1170,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1195,12 +1184,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1209,12 +1198,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1223,12 +1212,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1237,12 +1226,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1251,12 +1240,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1265,12 +1254,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1279,12 +1268,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1293,26 +1282,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1321,26 +1310,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1349,446 +1338,446 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>73</v>
       </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
         <v>76</v>
       </c>
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
         <v>83</v>
       </c>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
         <v>90</v>
       </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>92</v>
       </c>
-      <c r="C54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" t="s">
-        <v>96</v>
-      </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
         <v>99</v>
       </c>
-      <c r="B58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
         <v>102</v>
       </c>
-      <c r="B60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C61" t="s">
         <v>103</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>104</v>
       </c>
-      <c r="C61" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>109</v>
       </c>
       <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
         <v>104</v>
       </c>
-      <c r="C63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
         <v>110</v>
       </c>
-      <c r="B64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
         <v>111</v>
       </c>
-      <c r="B65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" t="s">
         <v>115</v>
       </c>
-      <c r="B67" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" t="s">
-        <v>117</v>
-      </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" t="s">
         <v>123</v>
-      </c>
-      <c r="B74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" t="s">
-        <v>125</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -1797,29 +1786,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>126</v>
-      </c>
+    <row r="76" spans="1:4">
       <c r="B76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>128</v>
-      </c>
+    <row r="77" spans="1:4">
       <c r="B77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
